--- a/biology/Botanique/Terminalia_aubletii/Terminalia_aubletii.xlsx
+++ b/biology/Botanique/Terminalia_aubletii/Terminalia_aubletii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia aubletii est une espèce d'arbre néotropical appartenant à la famille des Combretaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Terminalia aubletii est un arbre haut de 6-35(-?45) m, avec ou sans contreforts courts 
 Les grandes feuilles mesurent jusqu'à (6-)13-47(-?50) x (2-)4-9,5 cm, et sont densément regroupées à l'extrémité de courts rameaux renflés, et de couleur vert olive au séchage. 
@@ -527,13 +541,13 @@
 L'hypanthe inférieur est subglabre à densément pubescent, long de de 2 à 3,5 mm, se rétrécissant plutôt progressivement plus vers le col que sur sa longueur totale.
 L(hypanthe supérieur glabre, mesure 1-1,5 x 2,5-3,3 mm. 
 Les fruits sont étonnamment trigones, à surface rousse tachetée, glabre mais très rugueuse, striés, et pas ou à peine succulents, et mesurent jusqu'à 3-6,5 x 1,3-4 cm.
-Ils sont de forme oblongue à oblongue-elliptique (vue de profil), subcylindrique ou à 6 angles (3 angles plus marqués alternant avec 3 autres), à apex arrondi, subaigu ou courtement apiculé, et à base arrondie à obtuse et sans pseudo-stipe[5].
+Ils sont de forme oblongue à oblongue-elliptique (vue de profil), subcylindrique ou à 6 angles (3 angles plus marqués alternant avec 3 autres), à apex arrondi, subaigu ou courtement apiculé, et à base arrondie à obtuse et sans pseudo-stipe.
 Du fait de la ressemblance des feuilles, Terminalia aubletii a souvent été confondu avec d'autres espèces comme :
 Terminalia megalophylla (Van Heurck &amp; Müll. Arg.) Gere &amp; Boatwr. (espèce de forêt inondée),
 Terminalia nitidissima Rich.,
 Terminalia congesta (Ducke) Gere &amp; Boatwr.,
 Terminalia macrophylla (Eichler) Gere &amp; Boatwr. (espèce de forêt inondée), ou
-Terminalia pulcherrima (Exell &amp; Stace) Gere &amp; Boatwr.[6].</t>
+Terminalia pulcherrima (Exell &amp; Stace) Gere &amp; Boatwr..</t>
         </is>
       </c>
     </row>
@@ -561,9 +575,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terminalia aubletii est présent en Guyane et au Brésil dans les parties inférieures du bassin amazonien (Amapá, Pará, Amazonas)[6],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terminalia aubletii est présent en Guyane et au Brésil dans les parties inférieures du bassin amazonien (Amapá, Pará, Amazonas),.
 </t>
         </is>
       </c>
@@ -592,9 +608,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terminalia aubletii est un arbre poussant dans les forêts de terre ferme (non inondées)[6]. Il fleurit en septembre et fructifie de septembre à juillet[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terminalia aubletii est un arbre poussant dans les forêts de terre ferme (non inondées). Il fleurit en septembre et fructifie de septembre à juillet.
 </t>
         </is>
       </c>
@@ -623,9 +641,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[7] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PAMEA Guianenſis. (Tabula 360.)
 Arbor triginta-pedalis &amp; ampliùs, ramos plures verticillatim diſpoſitos emittens. Folia numeroſa, longa, anguſta, acuminata, glabra, integerrima, ſeſſilia, verticillata ad nodos ramorum, plurimis ordinibus. Fructus racemoſi, ex axillis foliorum. Drupa rufeſcens, ſubtrigona, ovato-oblonga; carne ſucculentâ acidâ. Nux teſtâ fragili, coſtis roliatis, longitudinalibus aſperata, unilocularis. Semen amygdalinum dulce &amp; edule. 
 Fructum ferebat Septembri.
